--- a/docs/json/datos.xlsx
+++ b/docs/json/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programacion\Paginas web\Curso Geek\aprendices-geek-entrenamiento-Photenix\Modulo-3\Tarea-02\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B02147B-488F-4CCC-9032-CCF6AF4C5EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A4E567-227D-401C-B0F5-DD2C70473590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="127">
   <si>
     <t>continent</t>
   </si>
@@ -313,6 +313,99 @@
   </si>
   <si>
     <t>https://content.api.news/v3/images/bin/b2805dd9740c89e10f3c8f92f714e6d0</t>
+  </si>
+  <si>
+    <t>Sudáfrica</t>
+  </si>
+  <si>
+    <t>Ciudad del Cabo</t>
+  </si>
+  <si>
+    <t>Ciudad del Cabo es una ciudad portuaria en la costa oeste de Sudáfrica, en una península bajo la imponente Montaña de la Mesa. Los teleféricos que rotan lentamente ascienden a la cima plana de la montaña, donde se pueden apreciar una vista panorámica de la ciudad, el ajetreado puerto y los botes que zarpan a isla Robben, la infame prisión donde estuvo recluido Nelson Mandela y que actualmente es un museo viviente.</t>
+  </si>
+  <si>
+    <t>https://wp-growpro.s3-eu-west-1.amazonaws.com/media/2018/04/Que-ver-en-Ciudad-del-Cabo-10-Lugares-que-no-te-puedes-perder.jpg</t>
+  </si>
+  <si>
+    <t>https://www.lavanguardia.com/files/content_image_mobile_filter/uploads/2018/12/18/5fa449ec32f1d.jpeg</t>
+  </si>
+  <si>
+    <t>Marrakech</t>
+  </si>
+  <si>
+    <t>Marruecos</t>
+  </si>
+  <si>
+    <t>Marrakech es una antigua ciudad imperial en el oeste de Marruecos y un importante centro económico con mezquitas, palacios y jardines. La medina es una ciudad medieval amurallada y densamente poblada que data del período del Imperio Bereber, con pasajes que parecen laberintos y animados zocos (mercados) que venden cerámicas, joyas y tejidos tradicionales.</t>
+  </si>
+  <si>
+    <t>https://www.egiptoexclusivo.com/wp-content/uploads/2020/12/vista-aera-del-cairo.jpg</t>
+  </si>
+  <si>
+    <t>Egipto</t>
+  </si>
+  <si>
+    <t>El Cairo</t>
+  </si>
+  <si>
+    <t>El Cairo, la extensa capital de Egipto, se ubica en el río Nilo. En su centro, se encuentra la plaza Tahrir y el vasto Museo Egipcio, un tesoro de antigüedades que incluye momias reales y artefactos bañados en oro del faraón Tutankamón.</t>
+  </si>
+  <si>
+    <t>África Oriental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania </t>
+  </si>
+  <si>
+    <t>Tanzania es un país de África Oriental famoso por sus extensas zonas de fauna salvaje. Estas incluyen las llanuras del parque nacional Serengueti, una meca del safari poblada por los "cinco grandes" animales (elefantes, leones, leopardos, búfalos y rinocerontes), y el parque nacional del Kilimanjaro, donde se ubica la montaña más alta de África.</t>
+  </si>
+  <si>
+    <t>https://www.volunteeringsolutions.com/asset/uploads/img/page_header_image/tanzania/arusha/504/504_tanzania_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fez </t>
+  </si>
+  <si>
+    <t>Fez es una ciudad en el noreste de Marruecos, a menudo llamada la capital cultural del país. Es conocida principalmente por su medina amurallada Fes El Bali, con arquitectura mariní medieval, animados zocos y un ambiente del mundo antiguo.</t>
+  </si>
+  <si>
+    <t>https://turismomarruecos.net/wp-content/uploads/2011/03/fez-el-bali-medina.jpg</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Ilinois</t>
+  </si>
+  <si>
+    <t>Chicago, en el lago Michigan de Illinois, se encuentra entre las ciudades más grandes de los EE.UU. Es famosa por su arquitectura atrevida y tiene un perfil en el que destacan rascacielos como el icónico Centro John Hancock, la torre Willis de 1,451 pies (antigua torre Sears) y Tribune Tower de estilo neogótico.</t>
+  </si>
+  <si>
+    <t>https://www.visittheusa.mx/sites/default/files/styles/hero_l/public/images/hero_media_image/2018-05/2af94a274ebf7f6716f9b2068595581c.jpeg?h=a98222f4&amp;itok=o5jaY4kH</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nashville </t>
+  </si>
+  <si>
+    <t>Nashville es la capital del estado de Tennessee en Estados Unidos, donde se encuentra la Universidad Vanderbilt. Los lugares icónicos de la música country incluyen la Grand Ole Opry House, sede del famoso escenario y programa radial “Grand Ole Opry”.</t>
+  </si>
+  <si>
+    <t>https://content.r9cdn.net/rimg/dimg/bf/d4/fb468871-reg-160-165b4e9651e.jpg?width=1366&amp;height=768&amp;xhint=1493&amp;yhint=1076&amp;crop=true</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Habana </t>
+  </si>
+  <si>
+    <t>La Habana es la capital de Cuba. La arquitectura colonial española en el centro de la Habana Vieja del siglo XVI incluye el Castillo de la Fuerza Real, un fuerte y un museo marítimo. El edificio del Capitolio Nacional es un monumento icónico de la década de 1920.</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/3/3b/Cuba_libre_%286941395159%29.jpg</t>
   </si>
 </sst>
 </file>
@@ -452,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -512,37 +605,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -843,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +1062,7 @@
       <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -996,16 +1070,16 @@
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="30" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1016,10 +1090,10 @@
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="27" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1036,7 +1110,7 @@
       <c r="C11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="27" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1047,13 +1121,13 @@
       <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="29" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="27" t="s">
         <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1064,16 +1138,16 @@
       <c r="A13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="22" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1081,66 +1155,106 @@
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="21"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="24"/>
+      <c r="B19" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1149,7 +1263,7 @@
       <c r="C20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="16" t="s">
         <v>95</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1186,7 +1300,7 @@
       <c r="D22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="27" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1228,13 +1342,13 @@
       <c r="A25" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -1245,16 +1359,16 @@
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="25" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1309,32 +1423,56 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
+      <c r="B32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
